--- a/StructureDefinition-ext-R5-ElementDefinition.example.xlsx
+++ b/StructureDefinition-ext-R5-ElementDefinition.example.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2047" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2047" uniqueCount="243">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -556,15 +556,6 @@
   <si>
     <t xml:space="preserve">code
 </t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The purpose for which an extended contact detail should be used.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-days-of-week-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:value.extension:availableTime.extension:allDay</t>
@@ -1129,8 +1120,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="54.17578125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -3720,13 +3711,13 @@
         <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>77</v>
@@ -3764,13 +3755,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>141</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>77</v>
@@ -3795,14 +3786,14 @@
         <v>95</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>77</v>
@@ -3871,7 +3862,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>164</v>
@@ -3974,7 +3965,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>166</v>
@@ -4079,7 +4070,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>168</v>
@@ -4122,7 +4113,7 @@
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>77</v>
@@ -4184,7 +4175,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>171</v>
@@ -4210,13 +4201,13 @@
         <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4287,13 +4278,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>141</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>77</v>
@@ -4318,16 +4309,16 @@
         <v>95</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="O31" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -4396,7 +4387,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>164</v>
@@ -4499,7 +4490,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>166</v>
@@ -4604,7 +4595,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>168</v>
@@ -4647,7 +4638,7 @@
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>77</v>
@@ -4709,7 +4700,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>171</v>
@@ -4735,16 +4726,16 @@
         <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -4814,13 +4805,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>141</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D36" t="s" s="2">
         <v>77</v>
@@ -4845,16 +4836,16 @@
         <v>95</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -4923,7 +4914,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>164</v>
@@ -5026,7 +5017,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>166</v>
@@ -5131,7 +5122,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>168</v>
@@ -5174,7 +5165,7 @@
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="S39" t="s" s="2">
         <v>77</v>
@@ -5236,7 +5227,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>171</v>
@@ -5262,16 +5253,16 @@
         <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="L40" t="s" s="2">
-        <v>201</v>
-      </c>
       <c r="M40" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -5341,7 +5332,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>143</v>
@@ -5446,7 +5437,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>146</v>
@@ -5472,7 +5463,7 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L42" t="s" s="2">
         <v>147</v>
@@ -5549,13 +5540,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>77</v>
@@ -5580,14 +5571,14 @@
         <v>95</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -5656,7 +5647,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>139</v>
@@ -5759,7 +5750,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>141</v>
@@ -5862,13 +5853,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>141</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>77</v>
@@ -5893,16 +5884,16 @@
         <v>95</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="O46" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -5971,7 +5962,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>164</v>
@@ -6074,7 +6065,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>166</v>
@@ -6179,7 +6170,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>168</v>
@@ -6222,7 +6213,7 @@
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="S49" t="s" s="2">
         <v>77</v>
@@ -6284,7 +6275,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>171</v>
@@ -6313,13 +6304,13 @@
         <v>88</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -6389,13 +6380,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>141</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>77</v>
@@ -6420,14 +6411,14 @@
         <v>95</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>77</v>
@@ -6496,7 +6487,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>164</v>
@@ -6599,7 +6590,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>166</v>
@@ -6704,7 +6695,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>168</v>
@@ -6747,7 +6738,7 @@
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="S54" t="s" s="2">
         <v>77</v>
@@ -6809,7 +6800,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>171</v>
@@ -6835,13 +6826,13 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -6912,7 +6903,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>143</v>
@@ -6955,7 +6946,7 @@
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>77</v>
@@ -7017,7 +7008,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>146</v>
@@ -7043,7 +7034,7 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L57" t="s" s="2">
         <v>147</v>
@@ -7120,7 +7111,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>115</v>
@@ -7163,7 +7154,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>77</v>
@@ -7225,7 +7216,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>124</v>
@@ -7251,7 +7242,7 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L59" t="s" s="2">
         <v>147</v>
@@ -7459,7 +7450,7 @@
         <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L61" t="s" s="2">
         <v>147</v>
